--- a/config_12.29/act_hhl_ty_config.xlsx
+++ b/config_12.29/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>line|</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>award_name|名称</t>
   </si>
@@ -46,9 +43,6 @@
     <t>豪华坚果礼盒</t>
   </si>
   <si>
-    <t>sdfl_swjl_skj</t>
-  </si>
-  <si>
     <t>金龙鱼大米</t>
   </si>
   <si>
@@ -97,22 +91,36 @@
     <t>prop_yd_jyb</t>
   </si>
   <si>
+    <t>ID|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ydhl_swjl_szss</t>
+  </si>
+  <si>
+    <t>hjhhl_jswjl_jlydm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ydhl_swjl_xnrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold9</t>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
+  </si>
+  <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_998y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_498y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line|1是normal，2是cjj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -171,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,22 +514,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -526,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>15000</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -546,16 +557,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>8000</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -566,16 +577,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>5000</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -586,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>24000</v>
@@ -603,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>12000</v>
@@ -620,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>6000</v>
@@ -637,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -654,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>1200</v>
@@ -691,13 +702,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -723,13 +734,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -755,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -766,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -780,16 +791,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -816,10 +832,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -830,34 +863,11 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -867,7 +877,40 @@
 </settings>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -876,8 +919,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -885,38 +928,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>